--- a/thepaper/爬虫列表.xlsx
+++ b/thepaper/爬虫列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="159">
   <si>
     <t>日常新闻转载来源（排名按新闻数量）</t>
   </si>
@@ -447,6 +447,7 @@
         <color rgb="FF0073BF"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">页</t>
     </r>
@@ -458,6 +459,7 @@
         <color rgb="FF0073BF"/>
         <rFont val="Droid Sans Japanese"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">有推荐的文章并不出</t>
     </r>
@@ -469,6 +471,7 @@
         <color rgb="FF0073BF"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">现</t>
     </r>
@@ -480,6 +483,7 @@
         <color rgb="FF0073BF"/>
         <rFont val="Droid Sans Japanese"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在</t>
     </r>
@@ -491,6 +495,7 @@
         <color rgb="FF0073BF"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">api</t>
     </r>
@@ -502,6 +507,7 @@
         <color rgb="FF0073BF"/>
         <rFont val="Droid Sans Japanese"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中</t>
     </r>
@@ -719,6 +725,7 @@
       <color rgb="FF0073BF"/>
       <name val="Droid Sans Japanese"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -727,6 +734,7 @@
       <color rgb="FF0073BF"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -735,6 +743,7 @@
       <color rgb="FF0073BF"/>
       <name val="DejaVu Sans Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -977,7 +986,7 @@
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="E18 D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="E21 D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1676,7 +1685,7 @@
   <dimension ref="1:63"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -21283,6 +21292,9 @@
         <v>61</v>
       </c>
       <c r="C21" s="9"/>
+      <c r="E21" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
@@ -21306,6 +21318,7 @@
       <c r="C23" s="9" t="s">
         <v>122</v>
       </c>
+      <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
@@ -21317,6 +21330,7 @@
       <c r="C24" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
@@ -21328,6 +21342,7 @@
       <c r="C25" s="9" t="s">
         <v>124</v>
       </c>
+      <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
@@ -21339,6 +21354,7 @@
       <c r="C26" s="16" t="s">
         <v>127</v>
       </c>
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
@@ -21362,6 +21378,7 @@
       <c r="C28" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="E28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
@@ -21741,7 +21758,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E18 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E21 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/thepaper/爬虫列表.xlsx
+++ b/thepaper/爬虫列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,362 +13,1396 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="176">
   <si>
-    <t>日常新闻转载来源（排名按新闻数量）</t>
-  </si>
-  <si>
-    <t>mark增加网站</t>
-  </si>
-  <si>
-    <t>网站名称</t>
-  </si>
-  <si>
-    <t>网站链接</t>
-  </si>
-  <si>
-    <t>网站名</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>民航资源网</t>
-  </si>
-  <si>
-    <t>http://news.carnoc.com/</t>
-  </si>
-  <si>
-    <t>北京商报</t>
-  </si>
-  <si>
-    <t>http://www.bbtnews.com.cn/</t>
-  </si>
-  <si>
-    <t>网易财经</t>
-  </si>
-  <si>
-    <t>http://money.163.com/special/002526O5/transport.html</t>
-  </si>
-  <si>
-    <t>一财网</t>
-  </si>
-  <si>
-    <t>http://www.yicai.com/</t>
-  </si>
-  <si>
-    <t>网易科技</t>
-  </si>
-  <si>
-    <t>http://tech.163.com/internet</t>
-  </si>
-  <si>
-    <t>21世纪</t>
-  </si>
-  <si>
-    <t>http://www.21cbh.com/</t>
-  </si>
-  <si>
-    <t>腾讯科技</t>
-  </si>
-  <si>
-    <t>http://tech.qq.com/</t>
-  </si>
-  <si>
-    <t>澎湃新闻</t>
-  </si>
-  <si>
-    <t>http://www.thepaper.cn/</t>
-  </si>
-  <si>
-    <t>迈点网</t>
-  </si>
-  <si>
-    <t>http://www.meadin.com/</t>
-  </si>
-  <si>
-    <t>界面新闻</t>
-  </si>
-  <si>
-    <t>http://www.jiemian.com/</t>
-  </si>
-  <si>
-    <t>中国旅游新闻网</t>
-  </si>
-  <si>
-    <t>http://www.cntour2.com/</t>
-  </si>
-  <si>
-    <t>36氪</t>
-  </si>
-  <si>
-    <t>http://www.36kr.com/</t>
-  </si>
-  <si>
-    <t>Emily增加网站</t>
-  </si>
-  <si>
-    <t>IT搜狐</t>
-  </si>
-  <si>
-    <t>http://it.sohu.com/</t>
-  </si>
-  <si>
-    <t>虎嗅</t>
-  </si>
-  <si>
-    <t>http://www.huxiu.com/</t>
-  </si>
-  <si>
-    <t>华丽志</t>
-  </si>
-  <si>
-    <t>http://luxe.co/</t>
-  </si>
-  <si>
-    <t>Donews</t>
-  </si>
-  <si>
-    <t>http://www.donews.com/</t>
-  </si>
-  <si>
-    <t>每日经济</t>
-  </si>
-  <si>
-    <t>http://www.nbd.com.cn/</t>
-  </si>
-  <si>
-    <t>雷锋网</t>
-  </si>
-  <si>
-    <t>http://www.leiphone.com/</t>
-  </si>
-  <si>
-    <t>中国民航报</t>
-  </si>
-  <si>
-    <t>http://www.caacnews.com.cn/</t>
-  </si>
-  <si>
-    <t>快鲤鱼</t>
-  </si>
-  <si>
-    <t>http://kuailiyu.cyzone.cn/</t>
-  </si>
-  <si>
-    <t>可删掉网站</t>
-  </si>
-  <si>
-    <t>Techweb</t>
-  </si>
-  <si>
-    <t>http://www.techweb.com.cn/</t>
-  </si>
-  <si>
-    <t>凤凰科技</t>
-  </si>
-  <si>
-    <t>http://tech.ifeng.com/</t>
-  </si>
-  <si>
-    <t>慧聪</t>
-  </si>
-  <si>
-    <t>http://info.hotel.hc360.com/list/newindex.shtml</t>
-  </si>
-  <si>
-    <t>i黑马</t>
-  </si>
-  <si>
-    <t>http://www.iheima.com/</t>
-  </si>
-  <si>
-    <t>艾瑞</t>
-  </si>
-  <si>
-    <t>http://www.iresearch.cn/</t>
-  </si>
-  <si>
-    <t>钛媒体</t>
-  </si>
-  <si>
-    <t>http://www.tmtpost.com/</t>
-  </si>
-  <si>
-    <t>天下网商</t>
-  </si>
-  <si>
-    <t>http://i.wshang.com/</t>
-  </si>
-  <si>
-    <t>公众号帐号及发布发布时间</t>
-  </si>
-  <si>
-    <t>公众号</t>
-  </si>
-  <si>
-    <t>帐号</t>
-  </si>
-  <si>
-    <t>发布时间</t>
-  </si>
-  <si>
-    <t>旅游圈</t>
-  </si>
-  <si>
-    <t>dotours</t>
-  </si>
-  <si>
-    <t>一天两次，时间不定，基本保持在早晚各一条</t>
-  </si>
-  <si>
-    <t>wow36kr</t>
-  </si>
-  <si>
-    <t>一天发两次，早上是在8点左右，晚上在6点左右</t>
-  </si>
-  <si>
-    <t>智慧旅行</t>
-  </si>
-  <si>
-    <t>GP4008202018</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在中午12点左右</t>
-  </si>
-  <si>
-    <t>商业价值</t>
-  </si>
-  <si>
-    <t>bvnagzine</t>
-  </si>
-  <si>
-    <t>一天基本上发两次，有时发三次，基本保持早晚各一次</t>
-  </si>
-  <si>
-    <t>劲旅网</t>
-  </si>
-  <si>
-    <t>ctcnn1</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在中午</t>
-  </si>
-  <si>
-    <t>品橙旅游</t>
-  </si>
-  <si>
-    <t>pinchain</t>
-  </si>
-  <si>
-    <t>一天发一次，一般是上午10点左右</t>
-  </si>
-  <si>
-    <t>qqtech</t>
-  </si>
-  <si>
-    <t>一天基本发两次，有时也发三次，早上8点半左右，下午6点前</t>
-  </si>
-  <si>
-    <t>meadin1</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在上午</t>
-  </si>
-  <si>
-    <t>pingwest中文网</t>
-  </si>
-  <si>
-    <t>wepingwest</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在上午10点前</t>
-  </si>
-  <si>
-    <t>硅发布</t>
-  </si>
-  <si>
-    <t>guifabucom</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在上午9点左右</t>
-  </si>
-  <si>
-    <t>虎嗅网</t>
-  </si>
-  <si>
-    <t>huxiu-com</t>
-  </si>
-  <si>
-    <t>一天发两次，有时发三次，上午8点左右，晚上7点左右</t>
-  </si>
-  <si>
-    <t>里屋里</t>
-  </si>
-  <si>
-    <t>liwuli-hotels</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在上午7点半左右</t>
-  </si>
-  <si>
-    <t>thepapernews</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在晚上10点左右</t>
-  </si>
-  <si>
-    <t>icarnoc</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在晚上8点左右</t>
-  </si>
-  <si>
-    <t>中国旅游报</t>
-  </si>
-  <si>
-    <t>zglybs</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在下午6点左右</t>
-  </si>
-  <si>
-    <t>中国民航网</t>
-  </si>
-  <si>
-    <t>caacnews-officials</t>
-  </si>
-  <si>
-    <t>一天发一次，集中在下午5点左右</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>中国民用航空网</t>
-  </si>
-  <si>
-    <t>http://www.caac.gov.cn/XWZX/MHYW/</t>
-  </si>
-  <si>
-    <t>http://www.toptour.cn/home/</t>
-  </si>
-  <si>
-    <t>第一旅游网</t>
-  </si>
-  <si>
-    <t>国家旅游局</t>
-  </si>
-  <si>
-    <t>http://www.cnta.gov.cn/xxfb/</t>
+    <t xml:space="preserve">日常新闻转载来源（排名按新闻数量）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">增加网站</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">网站名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网站链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网站名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">民航资源网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://news.carnoc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京商报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bbtnews.com.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网易财经</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://money.163.com/special/002526O5/transport.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一财网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.yicai.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网易科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tech.163.com/internet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">世纪</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.21cbh.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腾讯科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tech.qq.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">澎湃新闻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.thepaper.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迈点网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.meadin.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">界面新闻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jiemian.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国旅游新闻网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cntour2.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">氪</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.36kr.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Emily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">增加网站</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">搜狐</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">http://it.sohu.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虎嗅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.huxiu.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华丽志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://luxe.co/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.donews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每日经济</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nbd.com.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷锋网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.leiphone.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国民航报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.caacnews.com.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快鲤鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://kuailiyu.cyzone.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可删掉网站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techweb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.techweb.com.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凤凰科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tech.ifeng.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">慧聪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://info.hotel.hc360.com/list/newindex.shtml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">黑马</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.iheima.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">艾瑞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.iresearch.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">钛媒体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.tmtpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天下网商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://i.wshang.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公众号帐号及发布发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公众号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帐号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅游圈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dotours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一天两次，时间不定，基本保持在早晚各一条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wow36kr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发两次，早上是在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右，晚上在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">智慧旅行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP4008202018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，集中在中午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">商业价值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bvnagzine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一天基本上发两次，有时发三次，基本保持早晚各一次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">劲旅网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctcnn1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一天发一次，集中在中午</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品橙旅游</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinchain</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，一般是上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">qqtech</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天基本发两次，有时也发三次，早上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点半左右，下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点前</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">meadin1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一天发一次，集中在上午</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">pingwest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中文网</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wepingwest</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，集中在上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点前</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">硅发布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guifabucom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，集中在上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">虎嗅网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huxiu-com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发两次，有时发三次，上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右，晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">里屋里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liwuli-hotels</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，集中在上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点半左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">thepapernews</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，集中在晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">icarnoc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，集中在晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">中国旅游报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zglybs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，集中在下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">中国民航网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caacnews-officials</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一天发一次，集中在下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点左右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">√</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">号停止在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2016/10/24</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">中国民用航空网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.caac.gov.cn/XWZX/MHYW/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报错，没有内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">两个人都爬了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.toptour.cn/home/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不叫中国旅游报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一旅游网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家旅游局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cnta.gov.cn/xxfb/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://www.donews.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://tech.ifeng.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://www.iheima.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://tech.qq.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://tech.ifeng.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://tech.163.com/internet</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">应该有数据，但爬不到数据</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://tech.qq.com/ </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://www.tmtpost.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大多没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">keyword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，没有内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://tech.163.com/internet</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://www.huxiu.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">黑马</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://www.tmtpost.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://www.iheima.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">氪</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://www.huxiu.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val=""/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://www.36kr.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://www.36kr.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00000A"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://www.donews.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.techweb.com.cn/news/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">有</t>
     </r>
     <r>
       <rPr>
@@ -378,13 +1412,10 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">黑马</t>
+      <t xml:space="preserve">bug</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">36</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -393,50 +1424,83 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">氪</t>
+      <t xml:space="preserve">11/26 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">页面改版，需重新定义需求</t>
     </r>
   </si>
   <si>
-    <t>http://www.techweb.com.cn/news/</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>k有bug</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">21</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">世纪</t>
     </r>
   </si>
   <si>
-    <t>域名过时</t>
+    <t xml:space="preserve">域名过时</t>
   </si>
   <si>
-    <t>需要模拟浏览器</t>
-  </si>
-  <si>
-    <t>两个人都爬了</t>
-  </si>
-  <si>
-    <t>创业邦</t>
-  </si>
-  <si>
-    <t>http://www.cyzone.cn/</t>
+    <t xml:space="preserve">需要模拟浏览器</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">16.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">出错</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">创业邦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cyzone.cn/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF0073BF"/>
+        <rFont val="Droid Sans Japanese"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">首</t>
     </r>
     <r>
@@ -513,59 +1577,133 @@
     </r>
   </si>
   <si>
-    <t>中国经营报</t>
+    <t xml:space="preserve">改版需要重新爬取</t>
   </si>
   <si>
-    <t>http://www.cb.com.cn/</t>
+    <t xml:space="preserve">中国经营报</t>
   </si>
   <si>
-    <t>华尔街见闻</t>
-  </si>
-  <si>
-    <t>http://wallstreetcn.com/</t>
-  </si>
-  <si>
-    <t>好奇心日报</t>
-  </si>
-  <si>
-    <t>http://www.qdaily.com/</t>
-  </si>
-  <si>
-    <t>Travel weekly China</t>
-  </si>
-  <si>
-    <t>http://www.travelweekly-china.com/</t>
-  </si>
-  <si>
-    <t>http://www.ctcnn.com/</t>
-  </si>
-  <si>
-    <t>http://www.pinchain.com/</t>
-  </si>
-  <si>
-    <t>只有首页有最新内容，比较少</t>
-  </si>
-  <si>
-    <t>里屋里酒店咨讯</t>
-  </si>
-  <si>
-    <t>航旅同行</t>
-  </si>
-  <si>
-    <t>travelskygds</t>
-  </si>
-  <si>
-    <t>航企哪些事儿</t>
-  </si>
-  <si>
-    <t>ThingsOfAirlines</t>
-  </si>
-  <si>
-    <t>航旅IT圈子</t>
+    <t xml:space="preserve">http://www.cb.com.cn/</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">pingwest</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">没有观点栏目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">以前爬取的页面数据截止于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">号</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">华尔街见闻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wallstreetcn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好奇心日报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.qdaily.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel weekly China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.travelweekly-china.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ctcnn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pinchain.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只有首页有最新内容，比较少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">里屋里酒店咨讯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">航旅同行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travelskygds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">航企哪些事儿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThingsOfAirlines</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">航旅</t>
     </r>
     <r>
       <rPr>
@@ -575,32 +1713,68 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">圈子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">pingwest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">中文网</t>
     </r>
   </si>
   <si>
-    <t>旅界</t>
+    <t xml:space="preserve">旅界</t>
   </si>
   <si>
-    <t>lvjienews</t>
+    <t xml:space="preserve">lvjienews</t>
   </si>
   <si>
-    <t>旅游商业观察</t>
+    <t xml:space="preserve">旅游商业观察</t>
   </si>
   <si>
-    <t>ph1240888257</t>
+    <t xml:space="preserve">ph1240888257</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">座</t>
     </r>
@@ -618,36 +1792,35 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">楼</t>
     </r>
   </si>
   <si>
-    <t>B1-12F</t>
+    <t xml:space="preserve">B1-12F</t>
   </si>
   <si>
-    <t>BBTtravel</t>
+    <t xml:space="preserve">BBTtravel</t>
   </si>
   <si>
-    <t>LuxeCO</t>
+    <t xml:space="preserve">LuxeCO</t>
   </si>
   <si>
-    <t>在线旅讯</t>
+    <t xml:space="preserve">在线旅讯</t>
   </si>
   <si>
-    <t>otadaily</t>
+    <t xml:space="preserve">otadaily</t>
   </si>
   <si>
-    <t>酒店内参</t>
+    <t xml:space="preserve">酒店内参</t>
   </si>
   <si>
-    <t>ehotelier</t>
+    <t xml:space="preserve">ehotelier</t>
   </si>
   <si>
-    <t>星硕袁学娅专栏</t>
+    <t xml:space="preserve">星硕袁学娅专栏</t>
   </si>
 </sst>
 </file>
@@ -655,15 +1828,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -681,6 +1853,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -691,17 +1870,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -712,10 +1889,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val=""/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00000A"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -816,11 +2034,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -829,15 +2047,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,47 +2079,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,15 +2103,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -927,7 +2173,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF00000A"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
@@ -986,21 +2232,17 @@
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="E21 D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.131455399061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67136150234742"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.8732394366197"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.2488262910798"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="8.67136150234742"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.8732394366197"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67136150234742"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3755868544601"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="52.7511737089202"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.67136150234742"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.9627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.4372093023256"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="65.9627906976744"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="61.1627906976744"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,254 +2255,254 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1297,339 +2539,339 @@
       <c r="M42" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1684,30 +2926,31 @@
   </sheetPr>
   <dimension ref="1:63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="17.5070422535211"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="58.3755868544601"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="15.131455399061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="46.1267605633803"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="4" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="20.306976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="67.5627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="35.7116279069767"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="33.0558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -2730,15 +3973,17 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="E2" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -3760,15 +5005,17 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="E3" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -4790,15 +6037,17 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
+      <c r="E4" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -5819,16 +7068,20 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+      <c r="E5" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
@@ -6850,13 +8103,13 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -7880,15 +9133,17 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+      <c r="E7" s="0" t="s">
+        <v>117</v>
+      </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
@@ -8910,15 +10165,17 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
+      <c r="E8" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -9940,15 +11197,17 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+      <c r="E9" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
@@ -10969,14 +12228,14 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+    <row r="10" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -11999,16 +13258,18 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+    <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="E11" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
@@ -13029,16 +14290,18 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+    <row r="12" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+      <c r="E12" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -14059,16 +15322,18 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+    <row r="13" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+      <c r="E13" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -15089,14 +16354,14 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+    <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -16119,16 +17384,18 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="9"/>
+    <row r="15" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+      <c r="E15" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -17149,16 +18416,18 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9"/>
+    <row r="16" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
+      <c r="E16" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -18179,16 +19448,18 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+    <row r="17" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="B17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+      <c r="E17" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -19210,16 +20481,16 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="4" t="s">
-        <v>119</v>
+      <c r="E18" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -20242,16 +21513,16 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="4" t="s">
-        <v>119</v>
+      <c r="E19" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -21273,441 +22544,447 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+    <row r="20" s="19" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>120</v>
+      <c r="C20" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="E21" s="4" t="s">
-        <v>119</v>
+      <c r="C21" s="11"/>
+      <c r="E21" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="E22" s="4" t="s">
-        <v>119</v>
+      <c r="C22" s="11"/>
+      <c r="E22" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>122</v>
+      <c r="C23" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="0"/>
+      <c r="C24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>124</v>
+      <c r="C25" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="0"/>
+      <c r="A26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="E27" s="4" t="s">
-        <v>119</v>
+      <c r="C27" s="11"/>
+      <c r="E27" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="0"/>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="E29" s="4" t="s">
-        <v>119</v>
+      <c r="C29" s="11"/>
+      <c r="E29" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="E30" s="4" t="s">
-        <v>119</v>
+      <c r="A30" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="E30" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="E31" s="4" t="s">
-        <v>119</v>
+      <c r="A31" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="E31" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="E32" s="4" t="s">
-        <v>119</v>
+      <c r="A32" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="E32" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="E33" s="4" t="s">
-        <v>119</v>
+      <c r="C33" s="11"/>
+      <c r="E33" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="E34" s="4" t="s">
-        <v>119</v>
+      <c r="B34" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="E34" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>138</v>
+      <c r="B35" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="7"/>
+      <c r="A40" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="7"/>
+      <c r="A41" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="9"/>
+      <c r="A56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="9"/>
+      <c r="A57" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="9"/>
+      <c r="A58" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="9"/>
+      <c r="A59" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="9"/>
+      <c r="B60" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="9"/>
+      <c r="A61" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="9"/>
+      <c r="A62" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
+      <c r="A63" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21717,28 +22994,20 @@
     <hyperlink ref="B5" r:id="rId4" display="http://money.163.com/special/002526O5/transport.html"/>
     <hyperlink ref="B6" r:id="rId5" display="http://www.cntour2.com/"/>
     <hyperlink ref="B7" r:id="rId6" display="http://www.toptour.cn/home/"/>
-    <hyperlink ref="B10" r:id="rId7" display="http://www.donews.com/"/>
-    <hyperlink ref="B11" r:id="rId8" display="http://www.iheima.com/"/>
-    <hyperlink ref="B12" r:id="rId9" display="http://tech.ifeng.com/"/>
-    <hyperlink ref="B13" r:id="rId10" display="http://tech.qq.com/"/>
-    <hyperlink ref="B14" r:id="rId11" display="http://tech.163.com/internet"/>
-    <hyperlink ref="B15" r:id="rId12" display="http://www.tmtpost.com/"/>
-    <hyperlink ref="B16" r:id="rId13" display="http://www.huxiu.com/"/>
-    <hyperlink ref="B17" r:id="rId14" display="http://www.36kr.com/"/>
-    <hyperlink ref="B19" r:id="rId15" display="http://www.thepaper.cn/"/>
-    <hyperlink ref="B20" r:id="rId16" display="http://www.jiemian.com/"/>
-    <hyperlink ref="B21" r:id="rId17" display="http://i.wshang.com/"/>
-    <hyperlink ref="B22" r:id="rId18" display="http://www.nbd.com.cn/"/>
-    <hyperlink ref="B24" r:id="rId19" display="http://www.yicai.com/"/>
-    <hyperlink ref="B25" r:id="rId20" display="http://money.163.com/special/002526O5/transport.html"/>
-    <hyperlink ref="B26" r:id="rId21" display="http://www.cyzone.cn/"/>
-    <hyperlink ref="B27" r:id="rId22" display="http://www.leiphone.com/"/>
-    <hyperlink ref="B28" r:id="rId23" display="http://www.cb.com.cn/"/>
-    <hyperlink ref="B29" r:id="rId24" display="http://luxe.co/"/>
-    <hyperlink ref="B30" r:id="rId25" display="http://wallstreetcn.com/"/>
-    <hyperlink ref="B32" r:id="rId26" display="http://www.travelweekly-china.com/"/>
-    <hyperlink ref="B33" r:id="rId27" display="http://www.meadin.com/"/>
-    <hyperlink ref="B34" r:id="rId28" display="http://www.ctcnn.com/"/>
+    <hyperlink ref="B19" r:id="rId7" display="http://www.thepaper.cn/"/>
+    <hyperlink ref="B20" r:id="rId8" display="http://www.jiemian.com/"/>
+    <hyperlink ref="B21" r:id="rId9" display="http://i.wshang.com/"/>
+    <hyperlink ref="B22" r:id="rId10" display="http://www.nbd.com.cn/"/>
+    <hyperlink ref="B24" r:id="rId11" display="http://www.yicai.com/"/>
+    <hyperlink ref="B25" r:id="rId12" display="http://money.163.com/special/002526O5/transport.html"/>
+    <hyperlink ref="B26" r:id="rId13" display="http://www.cyzone.cn/"/>
+    <hyperlink ref="B27" r:id="rId14" display="http://www.leiphone.com/"/>
+    <hyperlink ref="B28" r:id="rId15" display="http://www.cb.com.cn/"/>
+    <hyperlink ref="B29" r:id="rId16" display="http://luxe.co/"/>
+    <hyperlink ref="B30" r:id="rId17" display="http://wallstreetcn.com/"/>
+    <hyperlink ref="B32" r:id="rId18" display="http://www.travelweekly-china.com/"/>
+    <hyperlink ref="B33" r:id="rId19" display="http://www.meadin.com/"/>
+    <hyperlink ref="B34" r:id="rId20" display="http://www.ctcnn.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -21758,13 +23027,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E21 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67136150234742"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/thepaper/爬虫列表.xlsx
+++ b/thepaper/爬虫列表.xlsx
@@ -43,6 +43,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">增加网站</t>
     </r>
@@ -106,6 +107,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪</t>
     </r>
@@ -160,6 +162,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">氪</t>
     </r>
@@ -184,6 +187,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">增加网站</t>
     </r>
@@ -205,6 +209,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">搜狐</t>
     </r>
@@ -292,6 +297,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">黑马</t>
     </r>
@@ -348,6 +354,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发两次，早上是在</t>
     </r>
@@ -367,6 +374,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右，晚上在</t>
     </r>
@@ -386,6 +394,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -403,6 +412,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，集中在中午</t>
     </r>
@@ -422,6 +432,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -457,6 +468,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，一般是上午</t>
     </r>
@@ -476,6 +488,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -490,6 +503,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天基本发两次，有时也发三次，早上</t>
     </r>
@@ -509,6 +523,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点半左右，下午</t>
     </r>
@@ -528,6 +543,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点前</t>
     </r>
@@ -555,6 +571,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中文网</t>
     </r>
@@ -569,6 +586,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，集中在上午</t>
     </r>
@@ -588,6 +606,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点前</t>
     </r>
@@ -605,6 +624,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，集中在上午</t>
     </r>
@@ -624,6 +644,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -641,6 +662,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发两次，有时发三次，上午</t>
     </r>
@@ -660,6 +682,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右，晚上</t>
     </r>
@@ -679,6 +702,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -696,6 +720,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，集中在上午</t>
     </r>
@@ -715,6 +740,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点半左右</t>
     </r>
@@ -729,6 +755,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，集中在晚上</t>
     </r>
@@ -748,6 +775,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -762,6 +790,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，集中在晚上</t>
     </r>
@@ -781,6 +810,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -798,6 +828,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，集中在下午</t>
     </r>
@@ -817,6 +848,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -834,6 +866,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一天发一次，集中在下午</t>
     </r>
@@ -853,6 +886,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点左右</t>
     </r>
@@ -880,6 +914,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -899,6 +934,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">号停止在</t>
     </r>
@@ -959,6 +995,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -980,6 +1017,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -1003,6 +1041,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -1024,6 +1063,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -1047,6 +1087,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -1068,6 +1109,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -1094,6 +1136,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -1115,6 +1158,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -1126,6 +1170,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大多没有</t>
     </r>
@@ -1145,6 +1190,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，没有内容</t>
     </r>
@@ -1164,6 +1210,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">！</t>
     </r>
@@ -1187,6 +1234,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -1208,6 +1256,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -1229,6 +1278,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">黑马</t>
     </r>
@@ -1252,6 +1302,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -1273,6 +1324,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -1294,6 +1346,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">氪</t>
     </r>
@@ -1317,6 +1370,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -1325,8 +1379,9 @@
         <u val="single"/>
         <sz val="12"/>
         <color rgb="FF0000FF"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">http://www.36kr.com/</t>
     </r>
@@ -1337,6 +1392,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -1346,9 +1402,9 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF0000FF"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">http://www.36kr.com/</t>
     </r>
@@ -1358,6 +1414,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -1377,6 +1434,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -1401,6 +1459,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">有</t>
     </r>
@@ -1432,6 +1491,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">页面改版，需重新定义需求</t>
     </r>
@@ -1453,6 +1513,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪</t>
     </r>
@@ -1480,6 +1541,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">出错</t>
     </r>
@@ -1592,6 +1654,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">没有观点栏目</t>
     </r>
@@ -1611,6 +1674,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">以前爬取的页面数据截止于</t>
     </r>
@@ -1630,6 +1694,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -1649,6 +1714,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">号</t>
     </r>
@@ -1702,6 +1768,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">航旅</t>
     </r>
@@ -1721,6 +1788,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圈子</t>
     </r>
@@ -1742,6 +1810,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中文网</t>
     </r>
@@ -1775,6 +1844,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">座</t>
     </r>
@@ -1794,6 +1864,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">楼</t>
     </r>
@@ -1836,6 +1907,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1872,6 +1944,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1879,6 +1952,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1894,6 +1968,7 @@
       <color rgb="FF0000FF"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1906,21 +1981,23 @@
       <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -2237,12 +2314,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.9627906976744"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.4372093023256"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="65.9627906976744"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="61.1627906976744"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9302325581395"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.4093023255814"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.9302325581395"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="62.8837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,17 +3008,17 @@
   <dimension ref="1:63"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="20.306976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="67.5627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="35.7116279069767"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="33.0558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="20.7953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="69.6511627906977"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="36.7953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16363,7 +16444,9 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+      <c r="E14" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
@@ -17393,9 +17476,7 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="0" t="s">
-        <v>110</v>
-      </c>
+      <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -23031,6 +23112,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
